--- a/portfolio/통합 문서1.xlsx
+++ b/portfolio/통합 문서1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">리뷰나, 후기, 평점등이 수정된 경우 상단에 (수정됨)이라고 표시한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공연일시는 시작일, 종료일 직접입력 불가하며 달력으로 선택 해야한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">로그인 페이지에서 아이디찾기, 비밀번호 찾기를 할 수 있다.  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 상품 구매(발권완료)후나 관람일 경과후 (최대 14일 이내) 회원은 리뷰나 후기, 평점을 남길 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -234,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가격 속성에는 &lt; 성인 / 청소년 / 어린이 / 일반가 &gt; 가 있다.  가격은 따로 입력 받는다 .</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품등록 시 필요정보는 전시/행사명, 상품 장르 (전시 or 행사),  공연일시 , 관람등급 , 상품타입, 가격, 구매매수제한,  좌석판매형태 (지정석/ 비지정석), 할인정보, 장소, 시간(행사 운영시간), 공연상세정보, 기획사(주최사) 정보 이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공연 상세 정보에는 하나의 파일을 첨부 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">구매매수 제한 속성에는 &lt; 아이디 당 /  상품 당 &gt; 이 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,7 +242,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*결제는 어떻게 할건지~</t>
+    <t xml:space="preserve">리뷰나, 후기, 평점등이 수정된 경우 상단에 (수정됨)이라고 표시한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관람일 경과후 (최대 14일 이내) 회원은 리뷰나 후기, 평점을 남길 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 속성에는 &lt; 성인 / 청소년 / 어린이 / 일반가 / 주말 일반가 / 주중 일반가&gt; 가 있다.  가격은 따로 입력 받는다 .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연 상세 정보에는 여러 개의 파일을 첨부 할 수 있다. (썸네일, 상세정보이미지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,32 +402,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -743,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,11 +750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -780,10 +776,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -791,40 +787,40 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -832,137 +828,137 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>53</v>
+      <c r="B11" s="18" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>52</v>
+      <c r="B16" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -970,196 +966,200 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>7</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
+      <c r="A38" s="15">
         <v>8</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
+      <c r="A42" s="15">
         <v>9</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>49</v>
+      <c r="B42" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18">
+      <c r="A47" s="15">
         <v>10</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="22" t="s">
-        <v>60</v>
-      </c>
+      <c r="B52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="B11:B15"/>
@@ -1175,12 +1175,6 @@
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
